--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\documents\books\blog\repo\CompetitionRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC1589C-3CF3-4C0A-9564-4678A6505F94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3CCF70-83A3-4C23-A0E1-3604C8BC9F5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,38 @@
   </si>
   <si>
     <t>负责人</t>
+  </si>
+  <si>
+    <t>scratch基础知识点收集</t>
+  </si>
+  <si>
+    <t>收集所有scratch的功能点</t>
+  </si>
+  <si>
+    <t>要求每个功能点输出以下功能：
+功能描述
+示例</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
+    <t>同品调研</t>
+  </si>
+  <si>
+    <t>寻找目前市面上的所有同类产品</t>
+  </si>
+  <si>
+    <t>只需要找出产品的名称和基本特点，等待进一步的分析</t>
+  </si>
+  <si>
+    <t>刘勇</t>
+  </si>
+  <si>
+    <t>scratch责任人确认</t>
+  </si>
+  <si>
+    <t>同品分析责任人确认</t>
   </si>
 </sst>
 </file>
@@ -79,8 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -396,6 +431,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -403,10 +466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ED3682-81CE-45C4-926A-EF0FD55B504F}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,6 +501,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
